--- a/NASA.MARS.MISSION.DATA.xlsx
+++ b/NASA.MARS.MISSION.DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="0" windowWidth="27720" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="0" windowWidth="27720" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C14" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
